--- a/experiment result/64_0.2_40_zs50_kappa_lp.xlsx
+++ b/experiment result/64_0.2_40_zs50_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.04419569520671082</v>
+        <v>0.002467679820059824</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.06743905614522058</v>
+        <v>0.001863425513348333</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.05532487029940401</v>
+        <v>0.003019676526179971</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0386235750642964</v>
+        <v>0.005787058843675702</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03281829443114717</v>
+        <v>0.004374480902079879</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.05651334903843508</v>
+        <v>0.00942440917962576</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.04587668339931076</v>
+        <v>0.0009924354320900903</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.04460293777061466</v>
+        <v>0.007821877745038515</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.04353867148461072</v>
+        <v>0.003046922310043227</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.04910263735322139</v>
+        <v>0.002288944060038169</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.07700810177826302</v>
+        <v>0.02596192467239801</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.07587217799666997</v>
+        <v>0.03676075550092023</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.08673155782194564</v>
+        <v>0.001710370142284809</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.106258338932</v>
+        <v>0.003260270039630801</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.06305803316796302</v>
+        <v>0.006108358683031574</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.05265701960863996</v>
+        <v>0.002285634050814673</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.06745978489172361</v>
+        <v>0.002865190713291599</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.06371925553859174</v>
+        <v>0.0008170306805623844</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.04168709311680584</v>
+        <v>0.005683134742172418</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0510853988191895</v>
+        <v>0.002544437493055199</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.04685990105386845</v>
+        <v>0.001737987062182051</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.03430336351107001</v>
+        <v>0.001915419396190713</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.06278490234085837</v>
+        <v>0.009137788198393986</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.03995135388325831</v>
+        <v>0.001185953825422349</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.03446083747400488</v>
+        <v>0.00108913124859928</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.06607421415951283</v>
+        <v>0.01076596505154781</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.04234680458156077</v>
+        <v>0.005026843862354698</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.03592187186499127</v>
+        <v>0.0215693384443098</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.04085717945737202</v>
+        <v>0.003161464194194894</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.05600757871671277</v>
+        <v>0.003078040567437256</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.04392773069677262</v>
+        <v>0.000523613644896162</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.04115151535553502</v>
+        <v>0.001039424960331393</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.08779454962751718</v>
+        <v>0.006403096604381232</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0283831764154809</v>
+        <v>0.000818250802475743</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.02975729673937219</v>
+        <v>0.004388138065761618</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.05742610113406761</v>
+        <v>0.006764062235230966</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.03614890271835019</v>
+        <v>0.001118405884553675</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.08301997537524208</v>
+        <v>0.002612092484754399</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0288009196685416</v>
+        <v>0.002582671746750987</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0625135496246927</v>
+        <v>0.0166905348941543</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.05924970267667181</v>
+        <v>0.05637615075128103</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.03614350527409275</v>
+        <v>0.01613447552562409</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.02380545943715319</v>
+        <v>0.003165380590596104</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.03283533289379752</v>
+        <v>0.00204517949603224</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0254937127152897</v>
+        <v>0.003774803996029535</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.06421305904209912</v>
+        <v>0.006306690116200083</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.07697430812851982</v>
+        <v>0.01384362415166339</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.05574688199891577</v>
+        <v>0.001520650797095649</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.07761421212536629</v>
+        <v>0.003744085875117353</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.06595110223042429</v>
+        <v>0.0005585786209875961</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.03606160346144097</v>
+        <v>0.003105138429268549</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.04436100517258459</v>
+        <v>0.002271671130160848</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.02698196525588447</v>
+        <v>2.098757985233561e-05</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.04223353860566725</v>
+        <v>0.0007311791806295985</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.06214569756447821</v>
+        <v>0.003997486410219566</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.04111623563414435</v>
+        <v>0.004039691725963246</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.04391244104242436</v>
+        <v>0.001391939838014832</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.05362033713723283</v>
+        <v>0.002245544248182266</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0867666159284515</v>
+        <v>0.005701252978217598</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.05566528530238388</v>
+        <v>0.0006517205559184394</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.02762032651826829</v>
+        <v>0.0002098654135125884</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.03862421073278406</v>
+        <v>0.004418160030331776</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.06056043841548207</v>
+        <v>0.002535957552582973</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.02929689841908519</v>
+        <v>0.000959563809662356</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.042749126281663</v>
+        <v>0.01499411232780758</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.04426651042985951</v>
+        <v>0.007271200605623157</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.03603406553873019</v>
+        <v>0.00444693318745048</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.04790988101042845</v>
+        <v>0.002074034101772802</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.05076985649365891</v>
+        <v>0.0003598623661862272</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.04090477082787355</v>
+        <v>0.002779767178873201</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0693254090954384</v>
+        <v>0.003587627048718442</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.04809662243607268</v>
+        <v>0.000682802356151785</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.05489334733357672</v>
+        <v>0.005848615838229531</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.04972460280737451</v>
+        <v>0.004667660787291118</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.02397745959409556</v>
+        <v>0.007968419669533164</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.04771804664317852</v>
+        <v>0.009631338261613201</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.05849928116366546</v>
+        <v>0.0004813075237097947</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.03937118474465263</v>
+        <v>0.006678714126763546</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.03261385750778241</v>
+        <v>0.007428954588699589</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.02621230694609394</v>
+        <v>0.001511174242508738</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.02757074046702798</v>
+        <v>0.002243269807139472</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0913979112516389</v>
+        <v>0.002648806886230571</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0584532644428651</v>
+        <v>0.001865590708389138</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0886722203319061</v>
+        <v>0.0103071808653264</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.06814836721903678</v>
+        <v>0.08245773113961365</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.07204064120326044</v>
+        <v>0.005688029058001876</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0596955333590999</v>
+        <v>0.005194476085280108</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.06355610041383156</v>
+        <v>0.002471975893684694</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.03483575197956212</v>
+        <v>0.003586280551319548</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.051819515202886</v>
+        <v>0.002979032341158249</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.06149579192194291</v>
+        <v>0.004079698633339072</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.04599190827861722</v>
+        <v>0.00460866646550641</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.07828714889368679</v>
+        <v>0.004045100846042432</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.06050893877841488</v>
+        <v>0.005983437642308779</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.02819240086326129</v>
+        <v>0.002218071320736168</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.06478250607069869</v>
+        <v>0.001573489364899208</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.05157051806502596</v>
+        <v>0.0005476065294933082</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.03779892697167183</v>
+        <v>0.005039435755686932</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.06010641353079993</v>
+        <v>0.009450844174814326</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.04255057626065993</v>
+        <v>0.003735022959812509</v>
       </c>
     </row>
   </sheetData>
